--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hgf-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hgf-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,10 +546,10 @@
         <v>0.280937</v>
       </c>
       <c r="I2">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="J2">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.248835333333334</v>
+        <v>1.826566</v>
       </c>
       <c r="N2">
-        <v>6.746506</v>
+        <v>5.479698</v>
       </c>
       <c r="O2">
-        <v>0.03590294220158829</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="P2">
-        <v>0.03590294220158827</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="Q2">
-        <v>0.2105936840135556</v>
+        <v>0.1710499907806667</v>
       </c>
       <c r="R2">
-        <v>1.895343156122</v>
+        <v>1.539449917026</v>
       </c>
       <c r="S2">
-        <v>4.773283177437535E-05</v>
+        <v>4.553388093797721E-05</v>
       </c>
       <c r="T2">
-        <v>4.773283177437534E-05</v>
+        <v>4.553388093797721E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.280937</v>
       </c>
       <c r="I3">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="J3">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.29005966666666</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N3">
         <v>132.870179</v>
       </c>
       <c r="O3">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="P3">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="Q3">
-        <v>4.147572164191444</v>
+        <v>4.147572164191445</v>
       </c>
       <c r="R3">
         <v>37.328149477723</v>
       </c>
       <c r="S3">
-        <v>0.0009400821554206189</v>
+        <v>0.001104092764016141</v>
       </c>
       <c r="T3">
-        <v>0.0009400821554206189</v>
+        <v>0.001104092764016141</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.280937</v>
       </c>
       <c r="I4">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="J4">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,33 +682,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.09762433333333</v>
+        <v>19.10886933333333</v>
       </c>
       <c r="N4">
-        <v>48.292873</v>
+        <v>57.326608</v>
       </c>
       <c r="O4">
-        <v>0.2570006204793479</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="P4">
-        <v>0.2570006204793479</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="Q4">
-        <v>1.507472762444555</v>
+        <v>1.789462807966222</v>
       </c>
       <c r="R4">
-        <v>13.567254862001</v>
+        <v>16.105165271696</v>
       </c>
       <c r="S4">
-        <v>0.0003416813952007562</v>
+        <v>0.0004763589057736562</v>
       </c>
       <c r="T4">
-        <v>0.0003416813952007562</v>
+        <v>0.0004763589057736562</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,55 +717,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>10.26742066666667</v>
+        <v>0.09364566666666667</v>
       </c>
       <c r="H5">
-        <v>30.802262</v>
+        <v>0.280937</v>
       </c>
       <c r="I5">
-        <v>0.1457675418282608</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="J5">
-        <v>0.1457675418282608</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.248835333333334</v>
+        <v>0.1169856666666667</v>
       </c>
       <c r="N5">
-        <v>6.746506</v>
+        <v>0.350957</v>
       </c>
       <c r="O5">
-        <v>0.03590294220158829</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="P5">
-        <v>0.03590294220158827</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="Q5">
-        <v>23.08973837739689</v>
+        <v>0.01095520074544444</v>
       </c>
       <c r="R5">
-        <v>207.807645396572</v>
+        <v>0.09859680670899999</v>
       </c>
       <c r="S5">
-        <v>0.00523348362912765</v>
+        <v>2.91629835300224E-06</v>
       </c>
       <c r="T5">
-        <v>0.005233483629127647</v>
+        <v>2.91629835300224E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,10 +794,10 @@
         <v>30.802262</v>
       </c>
       <c r="I6">
-        <v>0.1457675418282608</v>
+        <v>0.1785947081647151</v>
       </c>
       <c r="J6">
-        <v>0.1457675418282608</v>
+        <v>0.178594708164715</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.29005966666666</v>
+        <v>1.826566</v>
       </c>
       <c r="N6">
-        <v>132.870179</v>
+        <v>5.479698</v>
       </c>
       <c r="O6">
-        <v>0.7070964373190638</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="P6">
-        <v>0.7070964373190638</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="Q6">
-        <v>454.744673949433</v>
+        <v>18.75412149743066</v>
       </c>
       <c r="R6">
-        <v>4092.702065544897</v>
+        <v>168.787093476876</v>
       </c>
       <c r="S6">
-        <v>0.1030717095035208</v>
+        <v>0.004992388081770575</v>
       </c>
       <c r="T6">
-        <v>0.1030717095035208</v>
+        <v>0.004992388081770575</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>30.802262</v>
       </c>
       <c r="I7">
-        <v>0.1457675418282608</v>
+        <v>0.1785947081647151</v>
       </c>
       <c r="J7">
-        <v>0.1457675418282608</v>
+        <v>0.178594708164715</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.09762433333333</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N7">
-        <v>48.292873</v>
+        <v>132.870179</v>
       </c>
       <c r="O7">
-        <v>0.2570006204793479</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="P7">
-        <v>0.2570006204793479</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="Q7">
-        <v>165.2810807643029</v>
+        <v>454.7446739494331</v>
       </c>
       <c r="R7">
-        <v>1487.529726878726</v>
+        <v>4092.702065544898</v>
       </c>
       <c r="S7">
-        <v>0.03746234869561231</v>
+        <v>0.1210540248864669</v>
       </c>
       <c r="T7">
-        <v>0.03746234869561231</v>
+        <v>0.1210540248864669</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>30.40955033333333</v>
+        <v>10.26742066666667</v>
       </c>
       <c r="H8">
-        <v>91.22865099999999</v>
+        <v>30.802262</v>
       </c>
       <c r="I8">
-        <v>0.4317272608283866</v>
+        <v>0.1785947081647151</v>
       </c>
       <c r="J8">
-        <v>0.4317272608283866</v>
+        <v>0.178594708164715</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,33 +930,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.248835333333334</v>
+        <v>19.10886933333333</v>
       </c>
       <c r="N8">
-        <v>6.746506</v>
+        <v>57.326608</v>
       </c>
       <c r="O8">
-        <v>0.03590294220158829</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="P8">
-        <v>0.03590294220158827</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="Q8">
-        <v>68.38607126037844</v>
+        <v>196.1987999096996</v>
       </c>
       <c r="R8">
-        <v>615.4746413434059</v>
+        <v>1765.789199187296</v>
       </c>
       <c r="S8">
-        <v>0.0155002788923716</v>
+        <v>0.05222854882651082</v>
       </c>
       <c r="T8">
-        <v>0.01550027889237159</v>
+        <v>0.05222854882651082</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>30.40955033333333</v>
+        <v>10.26742066666667</v>
       </c>
       <c r="H9">
-        <v>91.22865099999999</v>
+        <v>30.802262</v>
       </c>
       <c r="I9">
-        <v>0.4317272608283866</v>
+        <v>0.1785947081647151</v>
       </c>
       <c r="J9">
-        <v>0.4317272608283866</v>
+        <v>0.178594708164715</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>44.29005966666666</v>
+        <v>0.1169856666666667</v>
       </c>
       <c r="N9">
-        <v>132.870179</v>
+        <v>0.350957</v>
       </c>
       <c r="O9">
-        <v>0.7070964373190638</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="P9">
-        <v>0.7070964373190638</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="Q9">
-        <v>1346.840798699836</v>
+        <v>1.201141051637111</v>
       </c>
       <c r="R9">
-        <v>12121.56718829852</v>
+        <v>10.810269464734</v>
       </c>
       <c r="S9">
-        <v>0.3052728080252704</v>
+        <v>0.000319746369966731</v>
       </c>
       <c r="T9">
-        <v>0.3052728080252704</v>
+        <v>0.0003197463699667309</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>30.40955033333333</v>
+        <v>23.67539566666666</v>
       </c>
       <c r="H10">
-        <v>91.22865099999999</v>
+        <v>71.02618699999999</v>
       </c>
       <c r="I10">
-        <v>0.4317272608283866</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="J10">
-        <v>0.4317272608283866</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.09762433333333</v>
+        <v>1.826566</v>
       </c>
       <c r="N10">
-        <v>48.292873</v>
+        <v>5.479698</v>
       </c>
       <c r="O10">
-        <v>0.2570006204793479</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="P10">
-        <v>0.2570006204793479</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="Q10">
-        <v>489.5215174115913</v>
+        <v>43.24467276128066</v>
       </c>
       <c r="R10">
-        <v>4405.693656704322</v>
+        <v>389.202054851526</v>
       </c>
       <c r="S10">
-        <v>0.1109541739107446</v>
+        <v>0.01151182628965393</v>
       </c>
       <c r="T10">
-        <v>0.1109541739107446</v>
+        <v>0.01151182628965393</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2934873333333334</v>
+        <v>23.67539566666666</v>
       </c>
       <c r="H11">
-        <v>0.8804620000000001</v>
+        <v>71.02618699999999</v>
       </c>
       <c r="I11">
-        <v>0.004166667415957768</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="J11">
-        <v>0.004166667415957768</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,43 +1116,43 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.248835333333334</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N11">
-        <v>6.746506</v>
+        <v>132.870179</v>
       </c>
       <c r="O11">
-        <v>0.03590294220158829</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="P11">
-        <v>0.03590294220158827</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="Q11">
-        <v>0.6600046850857779</v>
+        <v>1048.584686708608</v>
       </c>
       <c r="R11">
-        <v>5.940042165772001</v>
+        <v>9437.262180377473</v>
       </c>
       <c r="S11">
-        <v>0.000149595619408373</v>
+        <v>0.2791355326011075</v>
       </c>
       <c r="T11">
-        <v>0.0001495956194083729</v>
+        <v>0.2791355326011074</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
         <v>3</v>
       </c>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2934873333333334</v>
+        <v>23.67539566666666</v>
       </c>
       <c r="H12">
-        <v>0.8804620000000001</v>
+        <v>71.02618699999999</v>
       </c>
       <c r="I12">
-        <v>0.004166667415957768</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="J12">
-        <v>0.004166667415957768</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,33 +1178,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.29005966666666</v>
+        <v>19.10886933333333</v>
       </c>
       <c r="N12">
-        <v>132.870179</v>
+        <v>57.326608</v>
       </c>
       <c r="O12">
-        <v>0.7070964373190638</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="P12">
-        <v>0.7070964373190638</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="Q12">
-        <v>12.99857150474422</v>
+        <v>452.4100422092995</v>
       </c>
       <c r="R12">
-        <v>116.987143542698</v>
+        <v>4071.690379883696</v>
       </c>
       <c r="S12">
-        <v>0.002946235685317167</v>
+        <v>0.1204325408208783</v>
       </c>
       <c r="T12">
-        <v>0.002946235685317167</v>
+        <v>0.1204325408208783</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2934873333333334</v>
+        <v>23.67539566666666</v>
       </c>
       <c r="H13">
-        <v>0.8804620000000001</v>
+        <v>71.02618699999999</v>
       </c>
       <c r="I13">
-        <v>0.004166667415957768</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="J13">
-        <v>0.004166667415957768</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>16.09762433333333</v>
+        <v>0.1169856666666667</v>
       </c>
       <c r="N13">
-        <v>48.292873</v>
+        <v>0.350957</v>
       </c>
       <c r="O13">
-        <v>0.2570006204793479</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="P13">
-        <v>0.2570006204793479</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="Q13">
-        <v>4.724448838591778</v>
+        <v>2.76968194566211</v>
       </c>
       <c r="R13">
-        <v>42.52003954732601</v>
+        <v>24.927137510959</v>
       </c>
       <c r="S13">
-        <v>0.001070836111232227</v>
+        <v>0.0007372953799895674</v>
       </c>
       <c r="T13">
-        <v>0.001070836111232227</v>
+        <v>0.0007372953799895674</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>29.37284333333333</v>
+        <v>0.3314846666666666</v>
       </c>
       <c r="H14">
-        <v>88.11852999999999</v>
+        <v>0.9944539999999999</v>
       </c>
       <c r="I14">
-        <v>0.4170090335449991</v>
+        <v>0.005765947381177186</v>
       </c>
       <c r="J14">
-        <v>0.4170090335449991</v>
+        <v>0.005765947381177185</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,33 +1302,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.248835333333334</v>
+        <v>1.826566</v>
       </c>
       <c r="N14">
-        <v>6.746506</v>
+        <v>5.479698</v>
       </c>
       <c r="O14">
-        <v>0.03590294220158829</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="P14">
-        <v>0.03590294220158827</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="Q14">
-        <v>66.05468792846445</v>
+        <v>0.6054786216546666</v>
       </c>
       <c r="R14">
-        <v>594.49219135618</v>
+        <v>5.449307594892</v>
       </c>
       <c r="S14">
-        <v>0.01497185122890629</v>
+        <v>0.0001611797308090255</v>
       </c>
       <c r="T14">
-        <v>0.01497185122890629</v>
+        <v>0.0001611797308090255</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>29.37284333333333</v>
+        <v>0.3314846666666666</v>
       </c>
       <c r="H15">
-        <v>88.11852999999999</v>
+        <v>0.9944539999999999</v>
       </c>
       <c r="I15">
-        <v>0.4170090335449991</v>
+        <v>0.005765947381177186</v>
       </c>
       <c r="J15">
-        <v>0.4170090335449991</v>
+        <v>0.005765947381177185</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,33 +1364,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>44.29005966666666</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N15">
         <v>132.870179</v>
       </c>
       <c r="O15">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="P15">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="Q15">
-        <v>1300.924983812985</v>
+        <v>14.68147566525178</v>
       </c>
       <c r="R15">
-        <v>11708.32485431687</v>
+        <v>132.133280987266</v>
       </c>
       <c r="S15">
-        <v>0.2948656019495349</v>
+        <v>0.003908240870895994</v>
       </c>
       <c r="T15">
-        <v>0.2948656019495348</v>
+        <v>0.003908240870895993</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>29.37284333333333</v>
+        <v>0.3314846666666666</v>
       </c>
       <c r="H16">
-        <v>88.11852999999999</v>
+        <v>0.9944539999999999</v>
       </c>
       <c r="I16">
-        <v>0.4170090335449991</v>
+        <v>0.005765947381177186</v>
       </c>
       <c r="J16">
-        <v>0.4170090335449991</v>
+        <v>0.005765947381177185</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,338 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.09762433333333</v>
+        <v>19.10886933333333</v>
       </c>
       <c r="N16">
-        <v>48.292873</v>
+        <v>57.326608</v>
       </c>
       <c r="O16">
-        <v>0.2570006204793479</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="P16">
-        <v>0.2570006204793479</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="Q16">
-        <v>472.8329975818544</v>
+        <v>6.334297181336889</v>
       </c>
       <c r="R16">
-        <v>4255.49697823669</v>
+        <v>57.008674632032</v>
       </c>
       <c r="S16">
-        <v>0.107171580366558</v>
+        <v>0.001686203737073563</v>
       </c>
       <c r="T16">
-        <v>0.1071715803665579</v>
+        <v>0.001686203737073563</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.3314846666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.9944539999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.005765947381177186</v>
+      </c>
+      <c r="J17">
+        <v>0.005765947381177185</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1169856666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.350957</v>
+      </c>
+      <c r="O17">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="P17">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="Q17">
+        <v>0.03877895471977777</v>
+      </c>
+      <c r="R17">
+        <v>0.3490105924779999</v>
+      </c>
+      <c r="S17">
+        <v>1.032304239860356E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.032304239860356E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>23.12211433333333</v>
+      </c>
+      <c r="H18">
+        <v>69.366343</v>
+      </c>
+      <c r="I18">
+        <v>0.4021932475133977</v>
+      </c>
+      <c r="J18">
+        <v>0.4021932475133977</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.826566</v>
+      </c>
+      <c r="N18">
+        <v>5.479698</v>
+      </c>
+      <c r="O18">
+        <v>0.02795372904983374</v>
+      </c>
+      <c r="P18">
+        <v>0.02795372904983374</v>
+      </c>
+      <c r="Q18">
+        <v>42.23406788937933</v>
+      </c>
+      <c r="R18">
+        <v>380.106611004414</v>
+      </c>
+      <c r="S18">
+        <v>0.01124280106666224</v>
+      </c>
+      <c r="T18">
+        <v>0.01124280106666224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>23.12211433333333</v>
+      </c>
+      <c r="H19">
+        <v>69.366343</v>
+      </c>
+      <c r="I19">
+        <v>0.4021932475133977</v>
+      </c>
+      <c r="J19">
+        <v>0.4021932475133977</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>44.29005966666667</v>
+      </c>
+      <c r="N19">
+        <v>132.870179</v>
+      </c>
+      <c r="O19">
+        <v>0.6778141756295529</v>
+      </c>
+      <c r="P19">
+        <v>0.6778141756295529</v>
+      </c>
+      <c r="Q19">
+        <v>1024.079823442822</v>
+      </c>
+      <c r="R19">
+        <v>9216.718410985397</v>
+      </c>
+      <c r="S19">
+        <v>0.2726122845070664</v>
+      </c>
+      <c r="T19">
+        <v>0.2726122845070664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>23.12211433333333</v>
+      </c>
+      <c r="H20">
+        <v>69.366343</v>
+      </c>
+      <c r="I20">
+        <v>0.4021932475133977</v>
+      </c>
+      <c r="J20">
+        <v>0.4021932475133977</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>19.10886933333333</v>
+      </c>
+      <c r="N20">
+        <v>57.326608</v>
+      </c>
+      <c r="O20">
+        <v>0.2924417490485847</v>
+      </c>
+      <c r="P20">
+        <v>0.2924417490485847</v>
+      </c>
+      <c r="Q20">
+        <v>441.8374615060604</v>
+      </c>
+      <c r="R20">
+        <v>3976.537153554544</v>
+      </c>
+      <c r="S20">
+        <v>0.1176180967583484</v>
+      </c>
+      <c r="T20">
+        <v>0.1176180967583484</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>23.12211433333333</v>
+      </c>
+      <c r="H21">
+        <v>69.366343</v>
+      </c>
+      <c r="I21">
+        <v>0.4021932475133977</v>
+      </c>
+      <c r="J21">
+        <v>0.4021932475133977</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.1169856666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.350957</v>
+      </c>
+      <c r="O21">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="P21">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="Q21">
+        <v>2.704955960027888</v>
+      </c>
+      <c r="R21">
+        <v>24.344603640251</v>
+      </c>
+      <c r="S21">
+        <v>0.0007200651813206821</v>
+      </c>
+      <c r="T21">
+        <v>0.0007200651813206821</v>
       </c>
     </row>
   </sheetData>
